--- a/assets/excel/Despidos Injustificados grupo Prueba.xlsx
+++ b/assets/excel/Despidos Injustificados grupo Prueba.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Calculos para grupo Prueba</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Prima Antiguedad</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Subtotal</t>
   </si>
   <si>
     <t>Planta de luz</t>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -132,13 +135,19 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="37D122"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -163,12 +172,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -183,6 +195,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -484,10 +499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,7 +519,7 @@
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="8.283690999999999" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9.569091999999999" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="1.142578" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="1.142578" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
@@ -520,7 +535,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
@@ -529,333 +544,352 @@
       <c r="E1"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>200</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>15</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>1479.45</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>246.575</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>98.6301</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>24.6575</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>197.26</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>2046.58</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>200</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>14</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>2071.23</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>345.205</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>138.082</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>34.5205</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>276.164</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>2865.21</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>100</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>24</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>1775.34</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>295.89</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>118.356</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>29.589</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>236.712</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>2455.89</v>
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>100</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>23</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>567.123</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>94.5205</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>37.8082</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>9.45205</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>75.6164</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>784.521</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>200</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>7397.26</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>1232.88</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>493.151</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>123.288</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>986.301</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>10232.9</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>11</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>29.8356</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>4.9726</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>1.98904</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>0.49726</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>3.97808</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="7">
         <v>41.2726</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>32.5479</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>5.42466</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>2.16986</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>0.542466</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>4.33973</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>45.0247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="8">
+        <v>18471.39</v>
       </c>
     </row>
   </sheetData>
